--- a/trunk/Report 5/report-50900500-TTCNPM.xlsx
+++ b/trunk/Report 5/report-50900500-TTCNPM.xlsx
@@ -380,7 +380,7 @@
     <t>Họp nhóm chọn đề tài và đưa ra features list</t>
   </si>
   <si>
-    <t>27/3/2012</t>
+    <t>27/4/2012</t>
   </si>
 </sst>
 </file>
@@ -3114,8 +3114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
